--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_영어_유의어_Day03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,24 +757,288 @@
 3. 조심</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1, 습격하다</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>disfigurement
+1. 효능
+2. 손해, 손상
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2, 손해, 손상</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>antidote
+1. 조심
+2. 해결책
+3. 상</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2, 해결책</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>potency
+1. 상, 소중한 것
+2. 곤경
+3. 효능</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3, 효능</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>recession
+1. 불경기
+2. 해결책, 곤경
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1, 불경기</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pitch
+1. 해결책, 곤경
+2. 습격하다
+3. 상</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2, 습격하다</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>summon
+1. 요청하다, 요구하다
+2. 떨어지다
+3. 습격하다</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>garm
+1. 손해, 손상
+2. 요청하다, 요구하다
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1, 손해, 손상</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>predicament
+1. 요청하다, 요구하다
+2. 손해, 손상
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>potency
+1. 효율, 효능
+2. 상, 소중한 것
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1, 효율, 효능</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>necessitate
+1. 해결책, 곤경
+2. 요청하다, 요구하다
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2, 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>remedy
+1. 상, 소중한 것
+2. 복잡
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1, 습격하다</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>20221203</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>00</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>07</t>
         </is>
       </c>
     </row>
